--- a/Android Kotlin Fundamentals/JetPack.xlsx
+++ b/Android Kotlin Fundamentals/JetPack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7109BB6-3EC4-4485-AF14-ECD40172CB78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72761D29-2F71-4E6E-9EC4-8C5A29A79E7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="172">
   <si>
     <t>Откуда</t>
   </si>
@@ -163,9 +163,6 @@
     <t>two</t>
   </si>
   <si>
-    <t>Preferences</t>
-  </si>
-  <si>
     <t>two + animation</t>
   </si>
   <si>
@@ -266,13 +263,286 @@
   </si>
   <si>
     <t>Lesson 03 App Navigation\AndroidTrivia-Starter</t>
+  </si>
+  <si>
+    <t>L 4: lifecycles</t>
+  </si>
+  <si>
+    <t>andfun-kotlin-dessert-pusher</t>
+  </si>
+  <si>
+    <t>android-lifecycles</t>
+  </si>
+  <si>
+    <t>DessertClicker</t>
+  </si>
+  <si>
+    <t>DessertClicker415</t>
+  </si>
+  <si>
+    <t>Java устаревший куча</t>
+  </si>
+  <si>
+    <t>Lesson 04 Activity and fragment lifecycles\android-lifecycles</t>
+  </si>
+  <si>
+    <t>Lesson 04 Activity and fragment lifecycles\andfun-kotlin-dessert-pusher</t>
+  </si>
+  <si>
+    <t>Lesson 04 Activity and fragment lifecycles\DessertClicker</t>
+  </si>
+  <si>
+    <t>Lesson 04 Activity and fragment lifecycles\DessertClicker415</t>
+  </si>
+  <si>
+    <t>Примитив</t>
+  </si>
+  <si>
+    <t>LifecycleObserver</t>
+  </si>
+  <si>
+    <t>Kitty</t>
+  </si>
+  <si>
+    <t>L 5: Architecture</t>
+  </si>
+  <si>
+    <t>andfun-kotlin-guess-it</t>
+  </si>
+  <si>
+    <t>GuessTheWord</t>
+  </si>
+  <si>
+    <t>GuessTheWord416</t>
+  </si>
+  <si>
+    <t>GuessWorld</t>
+  </si>
+  <si>
+    <t>L 6: Room  coroutines</t>
+  </si>
+  <si>
+    <t>android-room-with-a-view-kotlin</t>
+  </si>
+  <si>
+    <t>RecyclerViewClickHandler</t>
+  </si>
+  <si>
+    <t>RoomWordSample</t>
+  </si>
+  <si>
+    <t>Track_RecyclerView</t>
+  </si>
+  <si>
+    <t>TrackMySleepQuality</t>
+  </si>
+  <si>
+    <t>TrackMySleepQuality_ROOM_Corouutines</t>
+  </si>
+  <si>
+    <t>L 7: RecyclerView</t>
+  </si>
+  <si>
+    <t>andfun-kotlin-sleep-tracker-with-recyclerview-Step.14-Solution-Add-Header-to-GridLayout</t>
+  </si>
+  <si>
+    <t>TrackMySleepQuality_R2</t>
+  </si>
+  <si>
+    <t>TrackMySleepQuality_R2_Header</t>
+  </si>
+  <si>
+    <t>L 8: internet</t>
+  </si>
+  <si>
+    <t>MarsRealEstateC</t>
+  </si>
+  <si>
+    <t>MarsRealEstateCodelabs</t>
+  </si>
+  <si>
+    <t>MarsRealEstateFinal</t>
+  </si>
+  <si>
+    <t>MarsRealEstateU</t>
+  </si>
+  <si>
+    <t>MarsRealEstateV2</t>
+  </si>
+  <si>
+    <t>L 9: Repository</t>
+  </si>
+  <si>
+    <t>andfun-kotlin-dev-bytes-u</t>
+  </si>
+  <si>
+    <t>android-workmanager</t>
+  </si>
+  <si>
+    <t>Dev_Reposytory_WorkManager_U4</t>
+  </si>
+  <si>
+    <t>DevBytesS</t>
+  </si>
+  <si>
+    <t>DevBytesWorkManager</t>
+  </si>
+  <si>
+    <t>L 10: Desiging</t>
+  </si>
+  <si>
+    <t>andfun-kotlin-gdg-finder-u</t>
+  </si>
+  <si>
+    <t>andfun-kotlin-gdg-finder-u2</t>
+  </si>
+  <si>
+    <t>GDGFinderFinal</t>
+  </si>
+  <si>
+    <t>GDGFinderS</t>
+  </si>
+  <si>
+    <t>SunflowerAS</t>
+  </si>
+  <si>
+    <t>Jetnews</t>
+  </si>
+  <si>
+    <t>YESone</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Preferences  viewmodel savedstate</t>
+  </si>
+  <si>
+    <t>Lesson 05 Architecture components\andfun-kotlin-guess-it</t>
+  </si>
+  <si>
+    <t>Lesson 05 Architecture components\GuessTheWord</t>
+  </si>
+  <si>
+    <t>Lesson 05 Architecture components\GuessTheWord416</t>
+  </si>
+  <si>
+    <t>Lesson 05 Architecture components\GuessWorld</t>
+  </si>
+  <si>
+    <t>Русская c Комм</t>
+  </si>
+  <si>
+    <t>Полная Второй проход</t>
+  </si>
+  <si>
+    <t>English без комм</t>
+  </si>
+  <si>
+    <t>Классика</t>
+  </si>
+  <si>
+    <t>Слабый старый простой</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>Тоже самое без комм</t>
+  </si>
+  <si>
+    <t>Inet</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>android-room-with-recycler Не помнит базу</t>
+  </si>
+  <si>
+    <t>kotlin-coroutines Три в одном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               advanced-coroutines-codelab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              coroutines-codelab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ktx-library-codelab</t>
+  </si>
+  <si>
+    <t>Задержки</t>
+  </si>
+  <si>
+    <t>Котлин</t>
+  </si>
+  <si>
+    <t>WorkMan</t>
+  </si>
+  <si>
+    <t>Coroutine</t>
+  </si>
+  <si>
+    <t>Yes - Файк</t>
+  </si>
+  <si>
+    <t>Null Point Не делал</t>
+  </si>
+  <si>
+    <t>Не делал GPS</t>
+  </si>
+  <si>
+    <t>Lesson 06 Room database and coroutines\android-room-with-a-view-kotlin</t>
+  </si>
+  <si>
+    <t>Lesson 06 Room database and coroutines\android-room-with-recycler</t>
+  </si>
+  <si>
+    <t>Lesson 06 Room database and coroutines\kotlin-coroutines</t>
+  </si>
+  <si>
+    <t>Conv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> помнит базу</t>
+  </si>
+  <si>
+    <t>без заголовка ready Recycler</t>
+  </si>
+  <si>
+    <t>Стартовая текст Scrool</t>
+  </si>
+  <si>
+    <t>Recycler ready Recycler</t>
+  </si>
+  <si>
+    <t>без заголовка с коммент</t>
+  </si>
+  <si>
+    <t>Полная с коммент</t>
+  </si>
+  <si>
+    <t>Lesson 07 RecyclerView\TrackMySleepQuality_R2</t>
+  </si>
+  <si>
+    <t>Lesson 07 RecyclerView\TrackMySleepQuality_R2_Header</t>
+  </si>
+  <si>
+    <t>Udacity на старых библиотеках</t>
+  </si>
+  <si>
+    <t>Codelabs Finaly без коммент</t>
+  </si>
+  <si>
+    <t>Мой исправленный коммент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,24 +586,35 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF499936"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -349,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -359,21 +640,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -655,73 +943,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20:Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="R1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -739,11 +1049,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
@@ -765,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -786,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -804,11 +1114,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -845,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -883,12 +1193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -921,8 +1231,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -932,7 +1242,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -959,12 +1269,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
@@ -997,8 +1307,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1035,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1070,8 +1380,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1102,8 +1412,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
@@ -1128,7 +1438,7 @@
         <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
@@ -1144,7 +1454,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1186,60 +1496,60 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -1248,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -1269,330 +1579,1757 @@
         <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="O29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" t="s">
-        <v>6</v>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>49</v>
+      </c>
+      <c r="R36" t="s">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" t="s">
+        <v>6</v>
+      </c>
+      <c r="U39" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" t="s">
+        <v>5</v>
+      </c>
+      <c r="W39" t="s">
+        <v>5</v>
+      </c>
+      <c r="X39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" t="s">
+        <v>5</v>
+      </c>
+      <c r="W40" t="s">
+        <v>5</v>
+      </c>
+      <c r="X40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" t="s">
+        <v>160</v>
+      </c>
+      <c r="K41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" t="s">
+        <v>6</v>
+      </c>
+      <c r="U41" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>160</v>
+      </c>
+      <c r="K42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45" t="s">
+        <v>49</v>
+      </c>
+      <c r="M45" t="s">
+        <v>49</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s">
+        <v>6</v>
+      </c>
+      <c r="U45" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" t="s">
+        <v>49</v>
+      </c>
+      <c r="O46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" t="s">
+        <v>154</v>
+      </c>
+      <c r="V49" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s">
+        <v>6</v>
+      </c>
+      <c r="T53" t="s">
+        <v>6</v>
+      </c>
+      <c r="U53" t="s">
+        <v>5</v>
+      </c>
+      <c r="V53" t="s">
+        <v>5</v>
+      </c>
+      <c r="W53" t="s">
+        <v>5</v>
+      </c>
+      <c r="X53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>6</v>
+      </c>
+      <c r="T54" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>6</v>
+      </c>
+      <c r="R55" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s">
+        <v>6</v>
+      </c>
+      <c r="T55" t="s">
+        <v>6</v>
+      </c>
+      <c r="U55" t="s">
+        <v>5</v>
+      </c>
+      <c r="V55" t="s">
+        <v>5</v>
+      </c>
+      <c r="W55" t="s">
+        <v>5</v>
+      </c>
+      <c r="X55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" t="s">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56" t="s">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" t="s">
+        <v>5</v>
+      </c>
+      <c r="V56" t="s">
+        <v>5</v>
+      </c>
+      <c r="W56" t="s">
+        <v>5</v>
+      </c>
+      <c r="X56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1627,8 +3364,21 @@
     <hyperlink ref="D19" r:id="rId28" xr:uid="{EFE1B0DB-237B-4CE1-837A-294E2C87BEBE}"/>
     <hyperlink ref="D20" r:id="rId29" xr:uid="{74D81CE7-8811-471A-AE34-090648C79187}"/>
     <hyperlink ref="D21" r:id="rId30" xr:uid="{D7203F0D-14A1-483E-A417-F169D0D47CC0}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{D2E419CE-7FDC-4647-B6F9-33E43503B29A}"/>
+    <hyperlink ref="D29" r:id="rId32" xr:uid="{EFBAE166-E796-490E-A81E-96592E73D438}"/>
+    <hyperlink ref="D30" r:id="rId33" xr:uid="{32317114-37B1-4C97-BC4C-58AEE4FEFC80}"/>
+    <hyperlink ref="D31" r:id="rId34" xr:uid="{ABBCADCA-2EC3-4C14-ACDD-BAC2E07757D8}"/>
+    <hyperlink ref="D34" r:id="rId35" xr:uid="{265A9ECE-0F6B-4C36-B5C7-86488D445F5D}"/>
+    <hyperlink ref="D35" r:id="rId36" xr:uid="{9538D05C-F1BB-4BEA-A5C8-ACB56D34B978}"/>
+    <hyperlink ref="D36" r:id="rId37" xr:uid="{4C3F3CE4-E5ED-43D6-B437-6B50D1D478DE}"/>
+    <hyperlink ref="D37" r:id="rId38" xr:uid="{4E684D37-DB5A-4013-8C28-17D2004403D4}"/>
+    <hyperlink ref="D44" r:id="rId39" xr:uid="{CC1FC2CB-B8DA-495B-8F01-2DA909EB641F}"/>
+    <hyperlink ref="D45" r:id="rId40" xr:uid="{F16101DF-6790-4D88-BB1F-E499286E64EF}"/>
+    <hyperlink ref="D47" r:id="rId41" xr:uid="{61550527-4C50-4574-8CB2-47D0E180AD57}"/>
+    <hyperlink ref="D55" r:id="rId42" xr:uid="{364DD0D6-0A3C-411C-BD12-1A0ADBF5F324}"/>
+    <hyperlink ref="D56" r:id="rId43" xr:uid="{7ECE0E37-CD0F-4F6C-88FA-55DD5AA052B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Android Kotlin Fundamentals/JetPack.xlsx
+++ b/Android Kotlin Fundamentals/JetPack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72761D29-2F71-4E6E-9EC4-8C5A29A79E7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC4DD3-60E5-4A78-84FD-9E537CF32B57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="185">
   <si>
     <t>Откуда</t>
   </si>
@@ -391,12 +391,6 @@
     <t>L 10: Desiging</t>
   </si>
   <si>
-    <t>andfun-kotlin-gdg-finder-u</t>
-  </si>
-  <si>
-    <t>andfun-kotlin-gdg-finder-u2</t>
-  </si>
-  <si>
     <t>GDGFinderFinal</t>
   </si>
   <si>
@@ -536,6 +530,51 @@
   </si>
   <si>
     <t>Мой исправленный коммент</t>
+  </si>
+  <si>
+    <t>Со всеми комментариями</t>
+  </si>
+  <si>
+    <t>Первая со всеми комментами</t>
+  </si>
+  <si>
+    <t>Glide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t>English Codelabs</t>
+  </si>
+  <si>
+    <t>не разбирал с фото</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Первый с выпол</t>
+  </si>
+  <si>
+    <t>раб Codelabs English</t>
+  </si>
+  <si>
+    <t>раб Udacity English mat 1,0,0</t>
+  </si>
+  <si>
+    <t>Последний mat 1,1,0</t>
+  </si>
+  <si>
+    <t>Неверный URL</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Preload Fonts</t>
+  </si>
+  <si>
+    <t>English Codelabs Final</t>
   </si>
 </sst>
 </file>
@@ -591,7 +630,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +655,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -630,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -662,6 +707,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -943,11 +990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,7 +1009,7 @@
     <col min="24" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -998,7 +1045,7 @@
         <v>40</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>64</v>
@@ -1013,25 +1060,34 @@
         <v>70</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="V1" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -1049,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1114,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1307,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1345,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1380,7 +1436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -2125,10 +2181,10 @@
         <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -2143,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J34" t="s">
         <v>5</v>
@@ -2181,10 +2237,10 @@
         <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
         <v>49</v>
@@ -2199,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J35" t="s">
         <v>5</v>
@@ -2237,10 +2293,10 @@
         <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -2255,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
         <v>5</v>
@@ -2293,10 +2349,10 @@
         <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
         <v>49</v>
@@ -2311,7 +2367,7 @@
         <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J37" t="s">
         <v>5</v>
@@ -2352,7 +2408,7 @@
         <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -2370,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
@@ -2417,7 +2473,7 @@
         <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -2435,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
@@ -2482,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -2500,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K41" t="s">
         <v>6</v>
@@ -2547,7 +2603,7 @@
         <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -2565,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K42" t="s">
         <v>6</v>
@@ -2615,10 +2671,10 @@
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
@@ -2674,13 +2730,13 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
         <v>49</v>
@@ -2739,7 +2795,7 @@
         <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
         <v>49</v>
@@ -2798,13 +2854,13 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -2812,89 +2868,89 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" t="s">
+        <v>152</v>
+      </c>
+      <c r="V49" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" t="s">
-        <v>49</v>
-      </c>
-      <c r="L49" t="s">
-        <v>49</v>
-      </c>
-      <c r="M49" t="s">
-        <v>49</v>
-      </c>
-      <c r="N49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" t="s">
+      <c r="C50" t="s">
         <v>154</v>
       </c>
-      <c r="V49" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" t="s">
-        <v>6</v>
-      </c>
-      <c r="X49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>106</v>
       </c>
@@ -2902,7 +2958,7 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -2965,12 +3021,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -3033,12 +3089,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -3101,16 +3157,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
@@ -3172,16 +3228,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
@@ -3243,93 +3299,431 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>6</v>
+      </c>
+      <c r="P62" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>6</v>
+      </c>
+      <c r="R62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" t="s">
+        <v>6</v>
+      </c>
+      <c r="V62" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" t="s">
+        <v>6</v>
+      </c>
+      <c r="P65" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>8</v>
+      </c>
+      <c r="R65" t="s">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s">
+        <v>6</v>
+      </c>
+      <c r="U65" t="s">
+        <v>6</v>
+      </c>
+      <c r="V65" t="s">
+        <v>6</v>
+      </c>
+      <c r="W65" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" t="s">
+        <v>6</v>
+      </c>
+      <c r="P66" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s">
+        <v>6</v>
+      </c>
+      <c r="U66" t="s">
+        <v>6</v>
+      </c>
+      <c r="V66" t="s">
+        <v>6</v>
+      </c>
+      <c r="W66" t="s">
+        <v>6</v>
+      </c>
+      <c r="X66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" t="s">
+        <v>5</v>
+      </c>
+      <c r="P68" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s">
+        <v>5</v>
+      </c>
+      <c r="U68" t="s">
+        <v>176</v>
+      </c>
+      <c r="V68" t="s">
+        <v>12</v>
+      </c>
+      <c r="W68" t="s">
+        <v>6</v>
+      </c>
+      <c r="X68" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>6</v>
+      </c>
+      <c r="R71" t="s">
+        <v>12</v>
+      </c>
+      <c r="T71" t="s">
+        <v>12</v>
+      </c>
+      <c r="U71" t="s">
+        <v>6</v>
+      </c>
+      <c r="V71" t="s">
+        <v>6</v>
+      </c>
+      <c r="W71" t="s">
+        <v>12</v>
+      </c>
+      <c r="X71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Android Kotlin Fundamentals/JetPack.xlsx
+++ b/Android Kotlin Fundamentals/JetPack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC4DD3-60E5-4A78-84FD-9E537CF32B57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F10135-E485-4776-A717-3E9A34AA524E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="186">
   <si>
     <t>Откуда</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>English Codelabs Final</t>
+  </si>
+  <si>
+    <t>https://tutorialwing.com/java-kotlin-android-tutorial-examples/</t>
   </si>
 </sst>
 </file>
@@ -990,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3724,6 +3727,16 @@
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Android Kotlin Fundamentals/JetPack.xlsx
+++ b/Android Kotlin Fundamentals/JetPack.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F10135-E485-4776-A717-3E9A34AA524E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698CCA5-2ACE-4749-8EE8-36FF85EDF565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="187">
   <si>
     <t>Откуда</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>https://tutorialwing.com/java-kotlin-android-tutorial-examples/</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/courses/kotlin-android-fundamentals/toc</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -710,7 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -996,8 +998,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1090,6 +1092,11 @@
         <v>183</v>
       </c>
     </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="4" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
@@ -3418,7 +3425,7 @@
       <c r="A64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C64" t="s">
@@ -3570,7 +3577,7 @@
       <c r="A68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C68" t="s">
